--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Володя\Desktop\Обучение\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B38F61-12B9-4BF2-A99F-551A7F47C515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E331A8-8AAE-49C1-AF1F-06E338F20D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Что проверяем</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Да</t>
   </si>
   <si>
-    <t>Нет</t>
-  </si>
-  <si>
     <t>Сайт открывается и доступен</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Нет битых ссылок</t>
   </si>
   <si>
-    <t>При попытке повторно открыть сайт, он открывается и доступен.</t>
-  </si>
-  <si>
     <t>Все кнопки на сайте нажимаются.</t>
   </si>
   <si>
@@ -114,18 +108,6 @@
     <t>Проверить кнопки на разных страницах</t>
   </si>
   <si>
-    <t>Можно заполнить поля формы</t>
-  </si>
-  <si>
-    <t>После нажатия на кнопку отправить происходит отправка формы.</t>
-  </si>
-  <si>
-    <t>Письмо отправляется на почту после регистрации.</t>
-  </si>
-  <si>
-    <t>Поля передаются в запросе</t>
-  </si>
-  <si>
     <t>Есть фильтры для поиска товаров.</t>
   </si>
   <si>
@@ -147,19 +129,106 @@
     <t>После заказа приходит письмо на почту</t>
   </si>
   <si>
-    <t>Проверка возможностей личного кабинета.</t>
-  </si>
-  <si>
     <t>Легко найти нужный товар.</t>
   </si>
   <si>
-    <t>Отсутствуют опечатки</t>
-  </si>
-  <si>
     <t>Оплата производится</t>
   </si>
   <si>
     <t>Основные страницы сайта открываются и работают</t>
+  </si>
+  <si>
+    <t>Функциональное тестирование</t>
+  </si>
+  <si>
+    <t>SMOKY</t>
+  </si>
+  <si>
+    <t>Верстка</t>
+  </si>
+  <si>
+    <t>Магазин</t>
+  </si>
+  <si>
+    <t>Интеграция с банком  партнером подключена</t>
+  </si>
+  <si>
+    <t>Тестирование безопасности</t>
+  </si>
+  <si>
+    <t>Страницы, содержащие важные данные открываются через HTTPS (SSL).</t>
+  </si>
+  <si>
+    <t>Cookie хранятся в зашифрованном виде.</t>
+  </si>
+  <si>
+    <t>Локализация и глобализация</t>
+  </si>
+  <si>
+    <t>Проверка перевода всех элементов WEB приложения исходя из выбранного языка.</t>
+  </si>
+  <si>
+    <t>UX тестирование</t>
+  </si>
+  <si>
+    <t>Все страницы имеют корректные заголовки.</t>
+  </si>
+  <si>
+    <t>Отсутствие орфографических и грамматических ошибок</t>
+  </si>
+  <si>
+    <t>Выравнивание картинок, шрифтов, текстов</t>
+  </si>
+  <si>
+    <t>Подсказки существуют для всех полей.</t>
+  </si>
+  <si>
+    <t>Информативные ошибки, подсказки</t>
+  </si>
+  <si>
+    <t>Отступы между полями, колонками, рядами и сообщениями об ошибках</t>
+  </si>
+  <si>
+    <t>Кнопки имеют стандартный размер, цвет</t>
+  </si>
+  <si>
+    <t>На сайте нет битых ссылок и изображений.</t>
+  </si>
+  <si>
+    <t>Отображение чекбоксов и радио-кнопок, кнопки должны быть
+ доступны с клавиатуры,и пользователь должен быть в состоянии
+ пользоваться сайтом, используя только клавиатуру.</t>
+  </si>
+  <si>
+    <t>Отображение выпадающих списков</t>
+  </si>
+  <si>
+    <t>Скролл-вертикальный и только когда требуется.</t>
+  </si>
+  <si>
+    <t>Длинный текст скрывается под многоточие</t>
+  </si>
+  <si>
+    <t>Плейсхолдеры в полях есть,и исчезают при вводе данных</t>
+  </si>
+  <si>
+    <t>Логотип ведет на главную страницу сайта.</t>
+  </si>
+  <si>
+    <t>Переходы и навигация между страницами и разделами меню</t>
+  </si>
+  <si>
+    <t>Кросс-платформенное тестирование</t>
+  </si>
+  <si>
+    <t>На мобильном устройстве с ОС Android 8.1.0 cайт работает корректно</t>
+  </si>
+  <si>
+    <t>В браузерах Firefox, Chrome, Safari на актуальных версиях, 
+в ОС Windows 10 Pro, сайт работает корректно.</t>
+  </si>
+  <si>
+    <t>Корректное отображение сообщений об ошибках.</t>
   </si>
 </sst>
 </file>
@@ -181,12 +250,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,8 +276,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -221,7 +304,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2DFDF16-5A9F-4DA3-A40B-BF2F49422EC0}" name="Таблица1" displayName="Таблица1" ref="A1:C83" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2DFDF16-5A9F-4DA3-A40B-BF2F49422EC0}" name="Таблица1" displayName="Таблица1" ref="A1:C81" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{57C355A2-A3F2-4F9D-B8DD-21ADC644E350}" name="Что проверяем"/>
     <tableColumn id="2" xr3:uid="{1D888B94-E9CC-457B-A5F9-0161FA0BFF9B}" name="Результат"/>
@@ -494,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C64" sqref="A1:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,215 +605,343 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B38:B1048576" xr:uid="{701A35DE-5A78-48F7-943C-38316E1718DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B23:B29 B37:B1048576" xr:uid="{701A35DE-5A78-48F7-943C-38316E1718DA}">
       <formula1>$B$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B37" xr:uid="{DF802031-5451-4DDC-A44B-CFBB570B0C0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B36 B3:B22" xr:uid="{DF802031-5451-4DDC-A44B-CFBB570B0C0F}">
       <formula1>$O$1:$O$2</formula1>
     </dataValidation>
   </dataValidations>
